--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
   <si>
     <t>Browser</t>
   </si>
@@ -107,55 +107,169 @@
     <t>RobinASC@mmsg.com.au</t>
   </si>
   <si>
-    <t>06/10/2020 18:41:58</t>
-  </si>
-  <si>
     <t>Rock@2013</t>
   </si>
   <si>
-    <t>06/10/2020 18:47:33</t>
-  </si>
-  <si>
-    <t>06/11/2020 05:00:36</t>
-  </si>
-  <si>
-    <t>06/11/2020 05:42:06</t>
-  </si>
-  <si>
-    <t>06/11/2020 06:08:00</t>
-  </si>
-  <si>
-    <t>06/11/2020 06:18:35</t>
-  </si>
-  <si>
-    <t>06/11/2020 06:34:01</t>
-  </si>
-  <si>
-    <t>06/11/2020 06:51:18</t>
-  </si>
-  <si>
-    <t>06/11/2020 06:55:55</t>
-  </si>
-  <si>
-    <t>06/11/2020 07:00:24</t>
-  </si>
-  <si>
-    <t>06/11/2020 07:04:55</t>
-  </si>
-  <si>
-    <t>06/11/2020 07:06:59</t>
-  </si>
-  <si>
-    <t>06/11/2020 07:10:58</t>
-  </si>
-  <si>
-    <t>06/11/2020 07:21:41</t>
-  </si>
-  <si>
-    <t>06/11/2020 07:25:30</t>
-  </si>
-  <si>
-    <t>06/11/2020 07:29:10</t>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>07/27/2020 17:34:21</t>
+  </si>
+  <si>
+    <t>07/27/2020 17:40:42</t>
+  </si>
+  <si>
+    <t>07/27/2020 17:47:46</t>
+  </si>
+  <si>
+    <t>07/27/2020 17:52:55</t>
+  </si>
+  <si>
+    <t>07/27/2020 17:58:23</t>
+  </si>
+  <si>
+    <t>07/27/2020 18:04:16</t>
+  </si>
+  <si>
+    <t>07/27/2020 18:07:50</t>
+  </si>
+  <si>
+    <t>07/27/2020 18:15:31</t>
+  </si>
+  <si>
+    <t>07/27/2020 18:21:33</t>
+  </si>
+  <si>
+    <t>07/28/2020 15:17:06</t>
+  </si>
+  <si>
+    <t>07/28/2020 16:32:53</t>
+  </si>
+  <si>
+    <t>07/28/2020 16:42:59</t>
+  </si>
+  <si>
+    <t>07/28/2020 16:54:07</t>
+  </si>
+  <si>
+    <t>07/28/2020 17:00:13</t>
+  </si>
+  <si>
+    <t>07/28/2020 17:06:28</t>
+  </si>
+  <si>
+    <t>07/28/2020 17:17:50</t>
+  </si>
+  <si>
+    <t>07/28/2020 17:25:42</t>
+  </si>
+  <si>
+    <t>07/28/2020 17:30:25</t>
+  </si>
+  <si>
+    <t>07/28/2020 22:11:36</t>
+  </si>
+  <si>
+    <t>07/28/2020 22:48:33</t>
+  </si>
+  <si>
+    <t>07/28/2020 22:57:01</t>
+  </si>
+  <si>
+    <t>07/28/2020 23:04:40</t>
+  </si>
+  <si>
+    <t>07/29/2020 10:38:17</t>
+  </si>
+  <si>
+    <t>07/29/2020 10:38:58</t>
+  </si>
+  <si>
+    <t>07/29/2020 10:39:04</t>
+  </si>
+  <si>
+    <t>07/29/2020 10:39:24</t>
+  </si>
+  <si>
+    <t>07/29/2020 10:40:08</t>
+  </si>
+  <si>
+    <t>07/29/2020 11:43:27</t>
+  </si>
+  <si>
+    <t>07/29/2020 11:43:33</t>
+  </si>
+  <si>
+    <t>07/29/2020 11:43:38</t>
+  </si>
+  <si>
+    <t>07/29/2020 18:47:10</t>
+  </si>
+  <si>
+    <t>07/29/2020 18:48:30</t>
+  </si>
+  <si>
+    <t>07/29/2020 19:13:44</t>
+  </si>
+  <si>
+    <t>07/29/2020 19:13:58</t>
+  </si>
+  <si>
+    <t>07/29/2020 19:29:15</t>
+  </si>
+  <si>
+    <t>07/29/2020 20:45:33</t>
+  </si>
+  <si>
+    <t>07/29/2020 20:57:37</t>
+  </si>
+  <si>
+    <t>07/29/2020 21:04:12</t>
+  </si>
+  <si>
+    <t>07/29/2020 21:14:54</t>
+  </si>
+  <si>
+    <t>07/29/2020 21:26:08</t>
+  </si>
+  <si>
+    <t>07/30/2020 07:58:32</t>
+  </si>
+  <si>
+    <t>07/30/2020 07:59:10</t>
+  </si>
+  <si>
+    <t>07/30/2020 08:07:56</t>
+  </si>
+  <si>
+    <t>07/30/2020 08:30:08</t>
+  </si>
+  <si>
+    <t>07/30/2020 08:50:28</t>
+  </si>
+  <si>
+    <t>07/30/2020 10:40:37</t>
+  </si>
+  <si>
+    <t>07/30/2020 10:46:45</t>
+  </si>
+  <si>
+    <t>07/30/2020 11:14:00</t>
+  </si>
+  <si>
+    <t>07/30/2020 11:20:03</t>
+  </si>
+  <si>
+    <t>07/30/2020 21:25:22</t>
+  </si>
+  <si>
+    <t>07/30/2020 21:38:18</t>
+  </si>
+  <si>
+    <t>07/30/2020 21:50:44</t>
+  </si>
+  <si>
+    <t>07/31/2020 13:42:56</t>
   </si>
 </sst>
 </file>
@@ -612,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,8 +756,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,14 +818,14 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
@@ -742,8 +856,8 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -778,9 +892,9 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -822,11 +936,13 @@
     <hyperlink r:id="rId10" ref="I4"/>
     <hyperlink display="shaikf@mmsg.com.au" r:id="rId11" ref="K2:K4"/>
     <hyperlink display="shaikf@mmsg.com.au" r:id="rId12" ref="C2:C4"/>
-    <hyperlink r:id="rId13" ref="D2"/>
-    <hyperlink r:id="rId14" ref="D3"/>
-    <hyperlink r:id="rId15" ref="D4"/>
+    <hyperlink r:id="rId13" ref="D3"/>
+    <hyperlink r:id="rId14" ref="F2"/>
+    <hyperlink r:id="rId15" ref="C4"/>
+    <hyperlink r:id="rId16" ref="C2"/>
+    <hyperlink r:id="rId17" ref="D2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId16"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId18"/>
 </worksheet>
 </file>